--- a/docs/TemplateOffices/xlxs/giangvien.xlsx
+++ b/docs/TemplateOffices/xlxs/giangvien.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TemplateOffices/xlxs/giangvien.xlsx
+++ b/docs/TemplateOffices/xlxs/giangvien.xlsx
@@ -103,46 +103,46 @@
     <t>huanhx@vnu.edu.vn</t>
   </si>
   <si>
+    <t>fit002</t>
+  </si>
+  <si>
+    <t>fit003</t>
+  </si>
+  <si>
+    <t>fit004</t>
+  </si>
+  <si>
+    <t>fit005</t>
+  </si>
+  <si>
+    <t>fit006</t>
+  </si>
+  <si>
+    <t>fot007</t>
+  </si>
+  <si>
+    <t>fit008</t>
+  </si>
+  <si>
+    <t>fit009</t>
+  </si>
+  <si>
+    <t>fit010</t>
+  </si>
+  <si>
+    <t>fit011</t>
+  </si>
+  <si>
+    <t>fit012</t>
+  </si>
+  <si>
+    <t>fit013</t>
+  </si>
+  <si>
+    <t>DonViId</t>
+  </si>
+  <si>
     <t>fit001</t>
-  </si>
-  <si>
-    <t>fit002</t>
-  </si>
-  <si>
-    <t>fit003</t>
-  </si>
-  <si>
-    <t>fit004</t>
-  </si>
-  <si>
-    <t>fit005</t>
-  </si>
-  <si>
-    <t>fit006</t>
-  </si>
-  <si>
-    <t>fot007</t>
-  </si>
-  <si>
-    <t>fit008</t>
-  </si>
-  <si>
-    <t>fit009</t>
-  </si>
-  <si>
-    <t>fit010</t>
-  </si>
-  <si>
-    <t>fit011</t>
-  </si>
-  <si>
-    <t>fit012</t>
-  </si>
-  <si>
-    <t>fit013</t>
-  </si>
-  <si>
-    <t>DonViId</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,12 +541,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>

--- a/docs/TemplateOffices/xlxs/giangvien.xlsx
+++ b/docs/TemplateOffices/xlxs/giangvien.xlsx
@@ -34,9 +34,6 @@
     <t>Dương Lê Minh</t>
   </si>
   <si>
-    <t>Hoàng Thị Ngọc Trang</t>
-  </si>
-  <si>
     <t>Hoàng Xuân Tùng</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>fit001</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Trang</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,13 +161,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -518,19 +518,19 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,158 +541,158 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -700,27 +700,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
